--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-27T14:27:29+00:00</t>
+    <t>2022-06-01T13:01:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-01T13:01:08+00:00</t>
+    <t>2022-09-27T20:02:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:02:38+00:00</t>
+    <t>2022-09-27T20:20:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:20:50+00:00</t>
+    <t>2022-09-27T20:30:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T20:30:57+00:00</t>
+    <t>2022-09-27T22:49:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T22:49:39+00:00</t>
+    <t>2022-09-27T23:00:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:00:34+00:00</t>
+    <t>2022-09-27T23:08:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-27T23:08:58+00:00</t>
+    <t>2022-10-27T10:56:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-10-27T10:56:05+00:00</t>
+    <t>2022-11-23T04:23:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T04:23:36+00:00</t>
+    <t>2022-11-23T11:18:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:18:03+00:00</t>
+    <t>2022-11-23T11:20:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T11:20:15+00:00</t>
+    <t>2022-11-23T15:17:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T15:17:18+00:00</t>
+    <t>2022-11-28T15:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T15:39:12+00:00</t>
+    <t>2022-11-28T23:56:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T23:56:31+00:00</t>
+    <t>2022-11-29T11:57:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T11:57:57+00:00</t>
+    <t>2022-11-30T13:59:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:59:42+00:00</t>
+    <t>2022-11-30T15:11:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:11:20+00:00</t>
+    <t>2022-11-30T15:45:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T15:45:43+00:00</t>
+    <t>2023-01-08T23:46:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-08T23:46:44+00:00</t>
+    <t>2023-01-09T00:16:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-09T00:16:31+00:00</t>
+    <t>2023-01-11T14:19:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>Global (Whole world)</t>
+    <t>World</t>
   </si>
   <si>
     <t>Description</t>

--- a/ValueSet-who-ddcc-brands-covid-19.xlsx
+++ b/ValueSet-who-ddcc-brands-covid-19.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:19:24+00:00</t>
+    <t>2023-01-11T17:29:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
